--- a/set_up_grasp_models/tests/test_files/test_check_models/HMP2360_r0_t0_not_correct_meas_rates.xlsx
+++ b/set_up_grasp_models/tests/test_files/test_check_models/HMP2360_r0_t0_not_correct_meas_rates.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="11"/>
   </bookViews>
   <sheets>
     <sheet name="general" sheetId="1" state="visible" r:id="rId2"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="316" uniqueCount="127">
   <si>
     <t xml:space="preserve">General Reaction and Sampling Platform (GRASP)</t>
   </si>
@@ -48,7 +48,7 @@
     <t xml:space="preserve">Sampling mode (GRASP or rejection)</t>
   </si>
   <si>
-    <t xml:space="preserve">ORACLE</t>
+    <t xml:space="preserve">GRASP</t>
   </si>
   <si>
     <t xml:space="preserve">NLP solver (NLOPT or FMINCON (default))</t>
@@ -63,6 +63,15 @@
     <t xml:space="preserve">gurobi</t>
   </si>
   <si>
+    <t xml:space="preserve">Prior distribution for fluxes (uniform or normal)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">normal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prior distribution for thermodynamic quantities (uniform or normal)</t>
+  </si>
+  <si>
     <t xml:space="preserve">Number of exp. conditions (excluding reference state)</t>
   </si>
   <si>
@@ -315,34 +324,25 @@
     <t xml:space="preserve">max (M)</t>
   </si>
   <si>
-    <t xml:space="preserve">Fluxes (umol/gCDW/h)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">vref_mean</t>
-  </si>
-  <si>
-    <t xml:space="preserve">vref_std</t>
+    <t xml:space="preserve">reaction ID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vref_mean (mmol/L/h)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vref_std (mmol/L/h)</t>
   </si>
   <si>
     <t xml:space="preserve">enzyme/rxn</t>
   </si>
   <si>
-    <t xml:space="preserve">MBo10_LB2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MBo10_meas2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MBo10_UB2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MBo10_LB2 (M)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MBo10_UB2 (M)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">reaction ID</t>
+    <t xml:space="preserve">lower_bound</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mean</t>
+  </si>
+  <si>
+    <t xml:space="preserve">upper_bound</t>
   </si>
   <si>
     <t xml:space="preserve">kinetic mechanism</t>
@@ -502,7 +502,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -515,6 +515,10 @@
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -525,32 +529,31 @@
     </xf>
   </cellXfs>
   <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="15" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
+    <cellStyle name="Currency" xfId="17" builtinId="4"/>
+    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
+    <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
 </styleSheet>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B1048576"/>
+  <dimension ref="A1:B14"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B5" activeCellId="0" sqref="B5"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A16" activeCellId="0" sqref="A16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.57421875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="48.35"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="42.65"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="3" style="0" width="8.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="42.66"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -597,29 +600,29 @@
       <c r="A6" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="0" t="n">
-        <v>1</v>
+      <c r="B6" s="3" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="3" t="s">
         <v>11</v>
-      </c>
-      <c r="B7" s="0" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B8" s="0" t="n">
-        <v>10000</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>1</v>
@@ -627,15 +630,15 @@
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B10" s="0" t="n">
-        <v>2</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>1</v>
@@ -643,14 +646,28 @@
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B12" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -663,38 +680,35 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:D14"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.57"/>
-  </cols>
+  <sheetFormatPr defaultColWidth="8.57421875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>0.938105540546311</v>
@@ -708,7 +722,7 @@
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>0.948692986021061</v>
@@ -722,7 +736,7 @@
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>0.963822080137339</v>
@@ -736,7 +750,7 @@
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>0.781513345189378</v>
@@ -750,7 +764,7 @@
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>0.99</v>
@@ -764,7 +778,7 @@
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="2" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>0.99</v>
@@ -778,7 +792,7 @@
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>0.99</v>
@@ -792,7 +806,7 @@
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="2" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>0.99</v>
@@ -806,7 +820,7 @@
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="2" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>0.99</v>
@@ -820,7 +834,7 @@
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="2" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>0.99</v>
@@ -834,7 +848,7 @@
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="2" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>0.99</v>
@@ -848,7 +862,7 @@
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="2" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>0.99</v>
@@ -862,7 +876,7 @@
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="2" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>0.99</v>
@@ -886,38 +900,35 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:D21"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.57"/>
-  </cols>
+  <sheetFormatPr defaultColWidth="8.57421875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>101</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>0.600926593306472</v>
@@ -931,7 +942,7 @@
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>0.99</v>
@@ -945,7 +956,7 @@
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>0.99</v>
@@ -959,7 +970,7 @@
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>0.99</v>
@@ -973,7 +984,7 @@
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>0.99</v>
@@ -987,7 +998,7 @@
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>0.897059063218122</v>
@@ -1001,7 +1012,7 @@
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>0.879431204670374</v>
@@ -1015,7 +1026,7 @@
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="2" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>0.851303699101255</v>
@@ -1029,7 +1040,7 @@
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="2" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>0.913109189061105</v>
@@ -1043,7 +1054,7 @@
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="2" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>0.965053927008861</v>
@@ -1057,7 +1068,7 @@
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="2" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>0.622035526990772</v>
@@ -1071,7 +1082,7 @@
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="2" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>0.799696511562971</v>
@@ -1085,7 +1096,7 @@
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="2" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>0.99</v>
@@ -1099,7 +1110,7 @@
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="2" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B15" s="0" t="n">
         <v>0.99</v>
@@ -1113,7 +1124,7 @@
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="2" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B16" s="0" t="n">
         <v>0.99</v>
@@ -1127,7 +1138,7 @@
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="2" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B17" s="0" t="n">
         <v>0.99</v>
@@ -1141,7 +1152,7 @@
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="2" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B18" s="0" t="n">
         <v>0.771228436522274</v>
@@ -1155,7 +1166,7 @@
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="2" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B19" s="0" t="n">
         <v>0.967924985045021</v>
@@ -1169,7 +1180,7 @@
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="2" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B20" s="0" t="n">
         <v>0.994407168746068</v>
@@ -1183,7 +1194,7 @@
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="2" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B21" s="0" t="n">
         <v>0.989083174460458</v>
@@ -1207,24 +1218,21 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:K15"/>
+  <dimension ref="A1:K20"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K2" activeCellId="0" sqref="K2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="I27" activeCellId="0" sqref="I27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.57"/>
-  </cols>
+  <sheetFormatPr defaultColWidth="8.57421875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>104</v>
@@ -1259,7 +1267,7 @@
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B2" s="0" t="s">
         <v>114</v>
@@ -1268,7 +1276,7 @@
         <v>115</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="I2" s="0" t="n">
         <v>0</v>
@@ -1279,7 +1287,7 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B3" s="0" t="s">
         <v>116</v>
@@ -1299,7 +1307,7 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B4" s="0" t="s">
         <v>119</v>
@@ -1311,7 +1319,7 @@
         <v>121</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="I4" s="0" t="n">
         <v>0</v>
@@ -1322,7 +1330,7 @@
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B5" s="0" t="s">
         <v>122</v>
@@ -1339,7 +1347,7 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B6" s="0" t="s">
         <v>116</v>
@@ -1359,7 +1367,7 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="2" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B7" s="0" t="s">
         <v>119</v>
@@ -1371,7 +1379,7 @@
         <v>125</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="I7" s="0" t="n">
         <v>0</v>
@@ -1382,12 +1390,12 @@
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B8" s="0" t="s">
         <v>126</v>
       </c>
-      <c r="C8" s="4"/>
+      <c r="C8" s="5"/>
       <c r="I8" s="0" t="n">
         <v>0</v>
       </c>
@@ -1397,7 +1405,7 @@
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="2" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B9" s="0" t="s">
         <v>126</v>
@@ -1411,7 +1419,7 @@
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="2" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B10" s="0" t="s">
         <v>126</v>
@@ -1425,7 +1433,7 @@
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="2" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B11" s="0" t="s">
         <v>126</v>
@@ -1439,7 +1447,7 @@
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="2" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B12" s="0" t="s">
         <v>126</v>
@@ -1453,7 +1461,7 @@
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="2" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B13" s="0" t="s">
         <v>126</v>
@@ -1467,7 +1475,7 @@
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="2" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B14" s="0" t="s">
         <v>126</v>
@@ -1497,7 +1505,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
@@ -1507,79 +1515,76 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.57"/>
-  </cols>
+  <sheetFormatPr defaultColWidth="8.57421875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="O1" s="2" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="P1" s="2" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="R1" s="2" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="S1" s="2" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="T1" s="2" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="U1" s="2" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>0</v>
@@ -1644,7 +1649,7 @@
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>0</v>
@@ -1709,7 +1714,7 @@
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>-1</v>
@@ -1774,7 +1779,7 @@
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>0</v>
@@ -1839,7 +1844,7 @@
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>0</v>
@@ -1904,7 +1909,7 @@
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="2" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>-1</v>
@@ -1969,7 +1974,7 @@
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>0</v>
@@ -2034,7 +2039,7 @@
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="2" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>0</v>
@@ -2099,7 +2104,7 @@
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="2" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>0</v>
@@ -2164,7 +2169,7 @@
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="2" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>0</v>
@@ -2229,7 +2234,7 @@
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="2" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>0</v>
@@ -2294,7 +2299,7 @@
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="2" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>0</v>
@@ -2359,7 +2364,7 @@
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="2" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>0</v>
@@ -2434,7 +2439,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
@@ -2444,29 +2449,28 @@
       <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.57421875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1022" min="1" style="0" width="8.57"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1023" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1023" style="0" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="C2" s="0" t="n">
         <v>0</v>
@@ -2474,10 +2478,10 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="C3" s="0" t="n">
         <v>0</v>
@@ -2485,10 +2489,10 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="C4" s="0" t="n">
         <v>0</v>
@@ -2496,10 +2500,10 @@
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="C5" s="0" t="n">
         <v>0</v>
@@ -2507,10 +2511,10 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="C6" s="0" t="n">
         <v>1</v>
@@ -2518,10 +2522,10 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="C7" s="0" t="n">
         <v>1</v>
@@ -2529,10 +2533,10 @@
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="C8" s="0" t="n">
         <v>1</v>
@@ -2540,10 +2544,10 @@
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="2" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="C9" s="0" t="n">
         <v>1</v>
@@ -2551,10 +2555,10 @@
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="2" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="C10" s="0" t="n">
         <v>1</v>
@@ -2562,10 +2566,10 @@
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="2" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="C11" s="0" t="n">
         <v>1</v>
@@ -2573,10 +2577,10 @@
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="2" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="C12" s="0" t="n">
         <v>1</v>
@@ -2584,10 +2588,10 @@
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="2" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="C13" s="0" t="n">
         <v>0</v>
@@ -2595,10 +2599,10 @@
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="2" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="C14" s="0" t="n">
         <v>0</v>
@@ -2606,10 +2610,10 @@
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="2" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="C15" s="0" t="n">
         <v>0</v>
@@ -2617,10 +2621,10 @@
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="2" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="C16" s="0" t="n">
         <v>0</v>
@@ -2628,10 +2632,10 @@
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="2" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="C17" s="0" t="n">
         <v>0</v>
@@ -2639,10 +2643,10 @@
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="2" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="C18" s="0" t="n">
         <v>0</v>
@@ -2650,10 +2654,10 @@
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="2" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="C19" s="0" t="n">
         <v>0</v>
@@ -2661,10 +2665,10 @@
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="2" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="C20" s="0" t="n">
         <v>0</v>
@@ -2672,10 +2676,10 @@
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="2" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="C21" s="0" t="n">
         <v>0</v>
@@ -2693,7 +2697,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
@@ -2703,32 +2707,31 @@
       <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.57421875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1023" min="1" style="0" width="8.57"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1024" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1024" style="0" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>76</v>
+        <v>78</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="C2" s="0" t="n">
         <v>0</v>
@@ -2736,10 +2739,10 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="C3" s="0" t="n">
         <v>0</v>
@@ -2747,10 +2750,10 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="C4" s="0" t="n">
         <v>0</v>
@@ -2758,10 +2761,10 @@
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="C5" s="0" t="n">
         <v>0</v>
@@ -2769,10 +2772,10 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="C6" s="0" t="n">
         <v>0</v>
@@ -2780,10 +2783,10 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="2" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="C7" s="0" t="n">
         <v>0</v>
@@ -2791,10 +2794,10 @@
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="C8" s="0" t="n">
         <v>0</v>
@@ -2802,10 +2805,10 @@
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="2" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="C9" s="0" t="n">
         <v>0</v>
@@ -2813,10 +2816,10 @@
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="2" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="C10" s="0" t="n">
         <v>0</v>
@@ -2824,10 +2827,10 @@
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="2" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="C11" s="0" t="n">
         <v>0</v>
@@ -2835,10 +2838,10 @@
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="2" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="C12" s="0" t="n">
         <v>0</v>
@@ -2846,10 +2849,10 @@
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="2" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="C13" s="0" t="n">
         <v>0</v>
@@ -2857,10 +2860,10 @@
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="2" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="C14" s="0" t="n">
         <v>0</v>
@@ -2878,7 +2881,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
@@ -2888,114 +2891,111 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.57"/>
-  </cols>
+  <sheetFormatPr defaultColWidth="8.57421875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="2" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="2" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="2" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="2" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="2" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="2" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="2" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="2" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="2" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="2" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="2" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="2" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="2" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="2" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -3010,7 +3010,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
@@ -3020,114 +3020,111 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.57"/>
-  </cols>
+  <sheetFormatPr defaultColWidth="8.57421875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="2" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="2" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="2" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="2" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="2" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="2" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="2" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="2" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="2" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="2" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="2" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="2" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="2" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="2" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -3142,7 +3139,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
@@ -3152,25 +3149,22 @@
       <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.57"/>
-  </cols>
+  <sheetFormatPr defaultColWidth="8.57421875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>-60</v>
@@ -3181,7 +3175,7 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>-37.2</v>
@@ -3192,7 +3186,7 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>-50</v>
@@ -3203,7 +3197,7 @@
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>-23.24</v>
@@ -3214,7 +3208,7 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>-43.2</v>
@@ -3225,7 +3219,7 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="2" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>-24.6</v>
@@ -3236,7 +3230,7 @@
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>-40</v>
@@ -3247,7 +3241,7 @@
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="2" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>-10</v>
@@ -3258,7 +3252,7 @@
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="2" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>-30</v>
@@ -3269,7 +3263,7 @@
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="2" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>-10</v>
@@ -3280,7 +3274,7 @@
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="2" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>-10</v>
@@ -3291,7 +3285,7 @@
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="2" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>-10</v>
@@ -3302,7 +3296,7 @@
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="2" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>-10</v>
@@ -3323,7 +3317,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
@@ -3333,25 +3327,22 @@
       <selection pane="topLeft" activeCell="A8" activeCellId="0" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.57"/>
-  </cols>
+  <sheetFormatPr defaultColWidth="8.57421875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>0.000228462011808056</v>
@@ -3362,7 +3353,7 @@
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>1E-012</v>
@@ -3373,7 +3364,7 @@
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>1E-012</v>
@@ -3384,7 +3375,7 @@
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>1E-012</v>
@@ -3395,7 +3386,7 @@
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>1E-012</v>
@@ -3406,7 +3397,7 @@
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>0.00559675402823174</v>
@@ -3417,7 +3408,7 @@
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>0.00310804602125163</v>
@@ -3428,7 +3419,7 @@
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="2" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>0.0308279171448426</v>
@@ -3439,7 +3430,7 @@
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="2" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>0.00181042853161852</v>
@@ -3450,7 +3441,7 @@
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="2" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>8.28736361429022E-005</v>
@@ -3461,7 +3452,7 @@
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="2" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>0.00604381725975038</v>
@@ -3472,7 +3463,7 @@
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="2" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>1E-012</v>
@@ -3483,7 +3474,7 @@
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="2" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>1E-012</v>
@@ -3494,7 +3485,7 @@
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="2" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B15" s="0" t="n">
         <v>1E-012</v>
@@ -3505,7 +3496,7 @@
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="2" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B16" s="0" t="n">
         <v>1E-012</v>
@@ -3516,7 +3507,7 @@
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="2" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B17" s="0" t="n">
         <v>9.44630572239322E-006</v>
@@ -3527,7 +3518,7 @@
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="2" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B18" s="0" t="n">
         <v>5.16846874940607E-006</v>
@@ -3538,7 +3529,7 @@
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="2" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B19" s="0" t="n">
         <v>0.000856570953217132</v>
@@ -3549,7 +3540,7 @@
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="2" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B20" s="0" t="n">
         <v>0.00016291524956886</v>
@@ -3560,7 +3551,7 @@
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="2" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B21" s="0" t="n">
         <v>1E-012</v>
@@ -3582,36 +3573,35 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1"/>
+      <selection pane="topLeft" activeCell="C9" activeCellId="0" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.57421875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1022" min="1" style="0" width="8.57"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1023" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1023" style="0" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>-81.4547774583559</v>
@@ -3622,7 +3612,7 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>18.5183721041727</v>
@@ -3633,7 +3623,7 @@
     </row>
     <row r="4" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>0.431738943043251</v>
@@ -3644,7 +3634,7 @@
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>85.3794767878033</v>
@@ -3655,7 +3645,7 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>0.103545682502924</v>
@@ -3666,7 +3656,7 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="2" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>0.431738943043251</v>
@@ -3677,7 +3667,7 @@
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>-0.567354685137039</v>
@@ -3688,7 +3678,7 @@
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="2" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>85.3794767878033</v>
@@ -3699,7 +3689,7 @@
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="2" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>0.103545682502924</v>
@@ -3710,7 +3700,7 @@
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="2" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>0.431738943043251</v>
@@ -3721,7 +3711,7 @@
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="2" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>-0.567354685137039</v>
@@ -3732,7 +3722,7 @@
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="2" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>85.3794767878033</v>
@@ -3743,7 +3733,7 @@
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="2" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>-0.567354685137039</v>
